--- a/Tasks/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Tasks/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -13,11 +13,19 @@
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -231,18 +239,97 @@
   <si>
     <t>datePickerStart.setValue(DateService.getLocalDateValueFromDate(currentTask.getStartTime()));</t>
   </si>
+  <si>
+    <t>Mihu Dorina</t>
+  </si>
+  <si>
+    <t>Melu Eduard</t>
+  </si>
+  <si>
+    <t>It is not specified the criteria of deleteing or modifying the task</t>
+  </si>
+  <si>
+    <t>11.03.2020</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>F04,F05</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proiect 1. Tasks </t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>It is specified that the data is gonna come from .txt or binary file</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>There are no indications about the thechnology or development IDE</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>ClassDiagramDepTasks_v1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modul in care este realizata diagrame de clase este foarte incurcat deoarece nu se poate urmari usor relatiile intre clase</t>
+  </si>
+  <si>
+    <t>ClassDiagramTasks_v1.0</t>
+  </si>
+  <si>
+    <t>There is no custom error handleing class made and no validator.</t>
+  </si>
+  <si>
+    <t>Yes We could say that it has layered arhitecture and respects the MVC pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proiect 1. Tasks</t>
+  </si>
+  <si>
+    <t>The class named "Controller" is too generic, should be "MainController"</t>
+  </si>
+  <si>
+    <t>A way of reseting the filter set at F02 is needed. The platform is not specified</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,85 +501,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,6 +594,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -799,8 +894,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,78 +915,143 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="21">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="21">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="21">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -904,159 +1064,302 @@
       <c r="E9" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="21">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="21">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1079,8 +1382,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,76 +1402,92 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="31"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="34"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="32">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1184,40 +1503,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B26" si="0">B11+1</f>
+        <f>B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B13:B26" si="0">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1234,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1261,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1344,7 +1687,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1367,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,50 +1733,50 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="36"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="3">
@@ -1439,37 +1784,41 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="38"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>43898</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1730,8 +2079,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,71 +2101,83 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="36"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="24"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="32">
         <v>43899</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2088,12 +2449,12 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Tasks/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Tasks/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -13,11 +13,19 @@
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -231,18 +239,97 @@
   <si>
     <t>datePickerStart.setValue(DateService.getLocalDateValueFromDate(currentTask.getStartTime()));</t>
   </si>
+  <si>
+    <t>Mihu Dorina</t>
+  </si>
+  <si>
+    <t>Melu Eduard</t>
+  </si>
+  <si>
+    <t>It is not specified the criteria of deleteing or modifying the task</t>
+  </si>
+  <si>
+    <t>11.03.2020</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>F04,F05</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proiect 1. Tasks </t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>It is specified that the data is gonna come from .txt or binary file</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>There are no indications about the thechnology or development IDE</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>ClassDiagramDepTasks_v1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modul in care este realizata diagrame de clase este foarte incurcat deoarece nu se poate urmari usor relatiile intre clase</t>
+  </si>
+  <si>
+    <t>ClassDiagramTasks_v1.0</t>
+  </si>
+  <si>
+    <t>There is no custom error handleing class made and no validator.</t>
+  </si>
+  <si>
+    <t>Yes We could say that it has layered arhitecture and respects the MVC pattern</t>
+  </si>
+  <si>
+    <t>A way of reseting the filter set at F02 is needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proiect 1. Tasks</t>
+  </si>
+  <si>
+    <t>The class named "Controller" is too generic, should be "MainController"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,85 +501,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,6 +594,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -799,8 +894,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,78 +915,143 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="21">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="21">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="21">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -904,159 +1064,302 @@
       <c r="E9" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="21">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="21">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1079,8 +1382,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,76 +1402,92 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="31"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="34"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="32">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1184,40 +1503,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B26" si="0">B11+1</f>
+        <f>B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B12:B26" si="0">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1234,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1261,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
@@ -1344,7 +1687,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1367,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,50 +1733,50 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="36"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="3">
@@ -1439,37 +1784,41 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="38"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>43898</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1730,8 +2079,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,71 +2101,83 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="36"/>
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="24"/>
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3">
+        <v>235</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="32">
         <v>43899</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2088,12 +2449,12 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
